--- a/MoonsColorSlopeFromLiterature.xlsx
+++ b/MoonsColorSlopeFromLiterature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F269490F-9C54-4B36-B934-3CFF0E7BD8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0558837-43FE-4A91-A129-D6E099C1BFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="-110" windowWidth="17990" windowHeight="11020" activeTab="4" xr2:uid="{CD1319F5-58B1-4D86-AAAC-92CA0B7E9033}"/>
   </bookViews>
@@ -2790,7 +2790,7 @@
   <dimension ref="B1:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10456,7 +10456,7 @@
   <dimension ref="B1:L147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
